--- a/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CCDADA-8EB0-44D5-A4F6-7D0326F08591}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473AF777-26D1-43A9-91F6-3B5350F34D80}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
+    <workbookView minimized="1" xWindow="1965" yWindow="4650" windowWidth="23235" windowHeight="1530" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team Permissions Matrix" sheetId="4" r:id="rId1"/>
-    <sheet name="Team Field Descriptions" sheetId="1" r:id="rId2"/>
-    <sheet name="Edit Team" sheetId="3" r:id="rId3"/>
+    <sheet name="Team Field Descriptions" sheetId="1" r:id="rId1"/>
+    <sheet name="Team Permissions Matrix" sheetId="4" r:id="rId2"/>
+    <sheet name="Quote Templates" sheetId="5" r:id="rId3"/>
+    <sheet name="Edit Team" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="157">
   <si>
     <t>Add Profile</t>
   </si>
@@ -147,13 +148,379 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Quote Template Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recurring</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>1 Year MRR Subscription</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>AM - Block of Hours - Actual Rates</t>
+  </si>
+  <si>
+    <t>AM - Block of Hours - Blended Rates</t>
+  </si>
+  <si>
+    <t>AM - ESTIMATE</t>
+  </si>
+  <si>
+    <t>AM - Meriplex - MRR</t>
+  </si>
+  <si>
+    <t>AM - Meriplex - MRR Cloud</t>
+  </si>
+  <si>
+    <t>AM - NRR</t>
+  </si>
+  <si>
+    <t>AM - Time and Materials (TnM) - STD</t>
+  </si>
+  <si>
+    <t>Annual NRR Upfront Pay</t>
+  </si>
+  <si>
+    <t>Annual Upfront Pay - ARR</t>
+  </si>
+  <si>
+    <t>Avita - New Site</t>
+  </si>
+  <si>
+    <t>Backup of AM - Microsoft 365 MASTER Agreement Additions</t>
+  </si>
+  <si>
+    <t>Basic HW/SW Template</t>
+  </si>
+  <si>
+    <t>Basic Quote Template</t>
+  </si>
+  <si>
+    <t>BB and SDWan</t>
+  </si>
+  <si>
+    <t>Bluebeam License Subscription Addition</t>
+  </si>
+  <si>
+    <t>Change Order</t>
+  </si>
+  <si>
+    <t>Communications - SCI - IPT/Wireless/Switching</t>
+  </si>
+  <si>
+    <t>Communications - Site Assessment</t>
+  </si>
+  <si>
+    <t>Communications Additions/Addendum</t>
+  </si>
+  <si>
+    <t>CPI - Products &amp; Services Master v3</t>
+  </si>
+  <si>
+    <t>CPI- NetManage and NetSecure - 2022</t>
+  </si>
+  <si>
+    <t>Cyberian Managed Services Agreement</t>
+  </si>
+  <si>
+    <t>Datto S4 Business Continuity and Disaster Recovery (BCDR) Solution</t>
+  </si>
+  <si>
+    <t>Datto S5 Business Continuity and Disaster Recovery (BCDR) Solution</t>
+  </si>
+  <si>
+    <t>Detailed HW/SW Template</t>
+  </si>
+  <si>
+    <t>Dial2Teams Template</t>
+  </si>
+  <si>
+    <t>DO NOT USE - Government M365 GCC High</t>
+  </si>
+  <si>
+    <t>Do Not Use - Meriplex Tab Templates</t>
+  </si>
+  <si>
+    <t>DO NOT USE Government - MSP A LA Cart 2.0</t>
+  </si>
+  <si>
+    <t>DO NOT USE YET - Term Options</t>
+  </si>
+  <si>
+    <t>ESTIMATE</t>
+  </si>
+  <si>
+    <t>F1 GCC High Licenses - Add On Orders</t>
+  </si>
+  <si>
+    <t>F1 GCC High Licenses / Contract - Addendum</t>
+  </si>
+  <si>
+    <t>F1 Microsoft 365 NCE Subscription</t>
+  </si>
+  <si>
+    <t>F1 Project - Fixed Price</t>
+  </si>
+  <si>
+    <t>F1 Project - Fixed Price - Bronze</t>
+  </si>
+  <si>
+    <t>F1 Project - Fixed Price - Pre 2024 Gold/Silver/Hybrid</t>
+  </si>
+  <si>
+    <t>F1 Project - Time &amp; Materials</t>
+  </si>
+  <si>
+    <t>F1 Project - Time &amp; Materials - Bronze</t>
+  </si>
+  <si>
+    <t>Government - Block of Hours - Actual Rates</t>
+  </si>
+  <si>
+    <t>Government - Block of Hours - Blended Rates</t>
+  </si>
+  <si>
+    <t>Government - Meriplex Managed Microsoft M365+ Service (Commercial/Non-Profit)</t>
+  </si>
+  <si>
+    <t>Government - MRR - Change Order (CO)/Amendment/Renewal</t>
+  </si>
+  <si>
+    <t>Government - Non-Recurring</t>
+  </si>
+  <si>
+    <t>Government - Non-Recurring (Legacy Bronze)</t>
+  </si>
+  <si>
+    <t>Government - Renewal</t>
+  </si>
+  <si>
+    <t>Government MRR - STD</t>
+  </si>
+  <si>
+    <t>HPE Warranty Renewals</t>
+  </si>
+  <si>
+    <t>IaaS / DRaaS</t>
+  </si>
+  <si>
+    <t>IMO - White Label MSP Services</t>
+  </si>
+  <si>
+    <t>IMO-White Label MSP Services</t>
+  </si>
+  <si>
+    <t>John - PC</t>
+  </si>
+  <si>
+    <t>John - Shipping Costs</t>
+  </si>
+  <si>
+    <t>M365 - Annual Recurring</t>
+  </si>
+  <si>
+    <t>MCS3</t>
+  </si>
+  <si>
+    <t>MCS3 - Amendment</t>
+  </si>
+  <si>
+    <t>Meriplex - MRR - Change Order (CO)/Amendment/Renewal</t>
+  </si>
+  <si>
+    <t>Meriplex Internal</t>
+  </si>
+  <si>
+    <t>Meriplex Managed Microsoft M365+ Service</t>
+  </si>
+  <si>
+    <t>Meriplex MSSP - Managed SIEM with Platinum Endpoint Protection</t>
+  </si>
+  <si>
+    <t>Microsoft 365 License Election - Acquisition Version</t>
+  </si>
+  <si>
+    <t>Microsoft 365 MASTER Agreement</t>
+  </si>
+  <si>
+    <t>Microsoft Copilot for Microsoft 365</t>
+  </si>
+  <si>
+    <t>Microsoft MASTER Agreement Addition(s)</t>
+  </si>
+  <si>
+    <t>Microsoft Master Agreement Additions</t>
+  </si>
+  <si>
+    <t>Microsoft NCE Election Agreement</t>
+  </si>
+  <si>
+    <t>MRR - STD</t>
+  </si>
+  <si>
+    <t>MRR - STD - Version 2</t>
+  </si>
+  <si>
+    <t>MSP 2024</t>
+  </si>
+  <si>
+    <t>MSP -A LA Cart 2.0</t>
+  </si>
+  <si>
+    <t>MSP Input Template 2022</t>
+  </si>
+  <si>
+    <t>MSP Input Template 2023</t>
+  </si>
+  <si>
+    <t>MSP Test</t>
+  </si>
+  <si>
+    <t>Network Infrastructure and Security Assessment Template - Paul Wartenberg</t>
+  </si>
+  <si>
+    <t>New Microsoft Master Agreement</t>
+  </si>
+  <si>
+    <t>Next Gen Cloud</t>
+  </si>
+  <si>
+    <t>Next Gen Cyber Security Suite</t>
+  </si>
+  <si>
+    <t>Next Gen Managed IT</t>
+  </si>
+  <si>
+    <t>Nimble Storage Support Renewal -1 Year</t>
+  </si>
+  <si>
+    <t>Non-Recurring</t>
+  </si>
+  <si>
+    <t>Northstar-MMRC- MSP &amp; MSSP</t>
+  </si>
+  <si>
+    <t>NRR - Communications - Cabling - NEW</t>
+  </si>
+  <si>
+    <t>OHD Master Quotes</t>
+  </si>
+  <si>
+    <t>ONI - Basic Quote Template</t>
+  </si>
+  <si>
+    <t>Per Service Ticket # 10549505 - Standard SSL Certificate For classicbevco.com</t>
+  </si>
+  <si>
+    <t>Per Service Ticket # 117342 - Zix Renewal - Annual Subscription</t>
+  </si>
+  <si>
+    <t>Physical Security - NRR</t>
+  </si>
+  <si>
+    <t>Plan Comparison Input 2023</t>
+  </si>
+  <si>
+    <t>Project to Replace Existing Firewall which is going End Of Service</t>
+  </si>
+  <si>
+    <t>Project with Phases Converted</t>
+  </si>
+  <si>
+    <t>PSEC - Physical Security</t>
+  </si>
+  <si>
+    <t>Recurring Block - Dollars per Month - Actual Labor Rates</t>
+  </si>
+  <si>
+    <t>Recurring Block - Hours Per Month - Blended Labor Rates</t>
+  </si>
+  <si>
+    <t>Reliable IT (RIT) IT/SRA Security Risk Assessment Template</t>
+  </si>
+  <si>
+    <t>Renewal</t>
+  </si>
+  <si>
+    <t>SCI - MRR</t>
+  </si>
+  <si>
+    <t>Security Risk Assessment</t>
+  </si>
+  <si>
+    <t>Service Cancellation Letter</t>
+  </si>
+  <si>
+    <t>Solutions - Reorder MASTER TEMPLATE</t>
+  </si>
+  <si>
+    <t>System Template - Do Not Use - MSP Plan Comparison Layout</t>
+  </si>
+  <si>
+    <t>Test Template Order Porter Name</t>
+  </si>
+  <si>
+    <t>TrustX Staff Augmentation</t>
+  </si>
+  <si>
+    <t>UCaaS</t>
+  </si>
+  <si>
+    <t>UCaaS Contract Replacement MTM</t>
+  </si>
+  <si>
+    <t>Upgrade 510s to 620s - 3 sites</t>
+  </si>
+  <si>
+    <t>VMS MRR - Fixed Labor Rates</t>
+  </si>
+  <si>
+    <t>VMS MRR - PSP Labor Rates</t>
+  </si>
+  <si>
+    <t>VMS NRR - Fixed Labor Rates</t>
+  </si>
+  <si>
+    <t>VMS NRR - PSP Labor Rates</t>
+  </si>
+  <si>
+    <t>VMS Renewals</t>
+  </si>
+  <si>
+    <t>VMS Tab Template (Do Not Use or Delete)</t>
+  </si>
+  <si>
+    <t>NRR Team</t>
+  </si>
+  <si>
+    <t>Training/descriptive template</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +538,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Display"/>
@@ -185,12 +558,22 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -202,10 +585,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,50 +598,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
         <color theme="1"/>
@@ -268,19 +652,10 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u/>
+        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="16"/>
         <color theme="1"/>
@@ -288,7 +663,70 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="12" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -307,8 +745,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E15" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+  <autoFilter ref="A1:B7" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:E16" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2705EF5E-7673-46B7-8510-3E355CF13A75}" name="Team Name"/>
     <tableColumn id="2" xr3:uid="{8D5221E5-BE6B-4653-A6A1-5BA2AD8A6471}" name="Success Profile"/>
@@ -320,23 +769,27 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
-  <autoFilter ref="A1:B7" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="6"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:F116" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5AA60B3A-5C22-4EF1-AC63-FFA2B35F0AB0}" name="Quote Template Name"/>
+    <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E87ED63C-BC54-49FC-89C8-83EB2458BED5}" name="Total" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{A5F807BA-08F9-41A4-9CBF-90139FB2D23D}" name="Recurring" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{620AA166-6A38-4FFB-9E56-F773F40A0C00}" name="Status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D73D302D-1A85-48F4-98FA-FBF948C010DD}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13">
   <autoFilter ref="A1:B5" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,235 +1111,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC182DA-AFA1-48C9-B759-1603FF1DFEC8}">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EE407D-ED02-4322-BA3D-DCB4EAE737DF}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -898,75 +1190,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EE407D-ED02-4322-BA3D-DCB4EAE737DF}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC182DA-AFA1-48C9-B759-1603FF1DFEC8}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -977,11 +1450,2042 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF9CB69-39A5-427C-AC5B-F48FDEB163BE}">
+  <dimension ref="A1:F116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8">
+        <v>117939</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8">
+        <v>121097</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="8">
+        <v>84520</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="8">
+        <v>106952</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="8">
+        <v>79365</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8">
+        <v>80457</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="11">
+        <v>82873</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="8">
+        <v>84521</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="12">
+        <v>125547</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="8">
+        <v>113160</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="8">
+        <v>95881</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>567.74</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="8">
+        <v>112518</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8">
+        <v>117829</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>117831</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>114792</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3459.84</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1071.71</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>116542</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5250</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5255</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5706</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1442.5</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="8">
+        <v>114563</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="8">
+        <v>120261</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="8">
+        <v>120264</v>
+      </c>
+      <c r="C23" s="9">
+        <v>15100</v>
+      </c>
+      <c r="D23" s="9">
+        <v>15100</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="8">
+        <v>118533</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>825</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8">
+        <v>110119</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1167.5</v>
+      </c>
+      <c r="D25" s="9">
+        <v>17383</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="8">
+        <v>117897</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1127.5</v>
+      </c>
+      <c r="D26" s="9">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="8">
+        <v>117830</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="8">
+        <v>118531</v>
+      </c>
+      <c r="C28" s="9">
+        <v>50</v>
+      </c>
+      <c r="D28" s="9">
+        <v>18</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8">
+        <v>125618</v>
+      </c>
+      <c r="C29" s="9">
+        <v>290</v>
+      </c>
+      <c r="D29" s="9">
+        <v>290</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="8">
+        <v>111307</v>
+      </c>
+      <c r="C30" s="9">
+        <v>27859.5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>775</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="8">
+        <v>125558</v>
+      </c>
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="8">
+        <v>116959</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="9">
+        <v>420</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="8">
+        <v>112915</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="12">
+        <v>123332</v>
+      </c>
+      <c r="C34" s="13">
+        <v>6404.07</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="12">
+        <v>123330</v>
+      </c>
+      <c r="C35" s="13">
+        <v>6704.07</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="8">
+        <v>123315</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="12">
+        <v>123316</v>
+      </c>
+      <c r="C37" s="13">
+        <v>2011.96</v>
+      </c>
+      <c r="D37" s="13">
+        <v>6</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="12">
+        <v>123338</v>
+      </c>
+      <c r="C38" s="13">
+        <v>2011.96</v>
+      </c>
+      <c r="D38" s="13">
+        <v>6</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="12">
+        <v>123339</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2011.96</v>
+      </c>
+      <c r="D39" s="13">
+        <v>6</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="11"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="12">
+        <v>123328</v>
+      </c>
+      <c r="C40" s="13">
+        <v>2011.96</v>
+      </c>
+      <c r="D40" s="13">
+        <v>6</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="11"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="12">
+        <v>123340</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2011.96</v>
+      </c>
+      <c r="D41" s="13">
+        <v>6</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="12">
+        <v>125560</v>
+      </c>
+      <c r="C42" s="13">
+        <v>20000</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="12">
+        <v>125561</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="8">
+        <v>125606</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="8">
+        <v>125557</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="12">
+        <v>125439</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="12">
+        <v>125474</v>
+      </c>
+      <c r="C47" s="13">
+        <v>560</v>
+      </c>
+      <c r="D47" s="13">
+        <v>560</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="12">
+        <v>125512</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="8">
+        <v>125610</v>
+      </c>
+      <c r="C49" s="9">
+        <v>0</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="12">
+        <v>113536</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="8">
+        <v>107455</v>
+      </c>
+      <c r="C51" s="9">
+        <v>0</v>
+      </c>
+      <c r="D51" s="9">
+        <v>8463.5</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="8">
+        <v>107239</v>
+      </c>
+      <c r="C52" s="9">
+        <v>0</v>
+      </c>
+      <c r="D52" s="9">
+        <v>0</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="8">
+        <v>107690</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9">
+        <v>2629.4</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="8">
+        <v>122771</v>
+      </c>
+      <c r="C54" s="9">
+        <v>505</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="8">
+        <v>124609</v>
+      </c>
+      <c r="C55" s="9">
+        <v>3216.18</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="8">
+        <v>116976</v>
+      </c>
+      <c r="C56" s="9">
+        <v>0</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="8">
+        <v>5170</v>
+      </c>
+      <c r="C57" s="9">
+        <v>2995</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="8">
+        <v>78299</v>
+      </c>
+      <c r="C58" s="9">
+        <v>0</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="8">
+        <v>78516</v>
+      </c>
+      <c r="C59" s="9">
+        <v>0</v>
+      </c>
+      <c r="D59" s="9">
+        <v>0</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="8">
+        <v>95373</v>
+      </c>
+      <c r="C60" s="9">
+        <v>0</v>
+      </c>
+      <c r="D60" s="9">
+        <v>0</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" s="8">
+        <v>112487</v>
+      </c>
+      <c r="C61" s="9">
+        <v>0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>0</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="8">
+        <v>113552</v>
+      </c>
+      <c r="C62" s="9">
+        <v>0</v>
+      </c>
+      <c r="D62" s="9">
+        <v>0</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="8">
+        <v>108214</v>
+      </c>
+      <c r="C63" s="9">
+        <v>0</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="8">
+        <v>105963</v>
+      </c>
+      <c r="C64" s="9">
+        <v>0</v>
+      </c>
+      <c r="D64" s="9">
+        <v>0</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="8">
+        <v>122953</v>
+      </c>
+      <c r="C65" s="9">
+        <v>0</v>
+      </c>
+      <c r="D65" s="9">
+        <v>360</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="8">
+        <v>112746</v>
+      </c>
+      <c r="C66" s="9">
+        <v>0</v>
+      </c>
+      <c r="D66" s="9">
+        <v>30</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B67" s="8">
+        <v>112769</v>
+      </c>
+      <c r="C67" s="9">
+        <v>0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>0</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="8">
+        <v>112190</v>
+      </c>
+      <c r="C68" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="D68" s="9">
+        <v>0</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="8">
+        <v>78460</v>
+      </c>
+      <c r="C69" s="9">
+        <v>0</v>
+      </c>
+      <c r="D69" s="9">
+        <v>0</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" s="8">
+        <v>114200</v>
+      </c>
+      <c r="C70" s="9">
+        <v>0</v>
+      </c>
+      <c r="D70" s="9">
+        <v>0</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B71" s="8">
+        <v>119747</v>
+      </c>
+      <c r="C71" s="9">
+        <v>0</v>
+      </c>
+      <c r="D71" s="9">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="8">
+        <v>123512</v>
+      </c>
+      <c r="C72" s="9">
+        <v>0</v>
+      </c>
+      <c r="D72" s="9">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="8">
+        <v>104415</v>
+      </c>
+      <c r="C73" s="9">
+        <v>0</v>
+      </c>
+      <c r="D73" s="9">
+        <v>250</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="8">
+        <v>96368</v>
+      </c>
+      <c r="C74" s="9">
+        <v>53360.56</v>
+      </c>
+      <c r="D74" s="9">
+        <v>6450</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75" s="8">
+        <v>117832</v>
+      </c>
+      <c r="C75" s="9">
+        <v>53360.56</v>
+      </c>
+      <c r="D75" s="9">
+        <v>6450</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B76" s="8">
+        <v>111537</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1029</v>
+      </c>
+      <c r="D76" s="9">
+        <v>27258.1</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="12">
+        <v>123211</v>
+      </c>
+      <c r="C77" s="13">
+        <v>28200</v>
+      </c>
+      <c r="D77" s="13">
+        <v>0</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F77" s="11"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="8">
+        <v>112859</v>
+      </c>
+      <c r="C78" s="9">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="8">
+        <v>122516</v>
+      </c>
+      <c r="C79" s="9">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+      <c r="B80" s="8">
+        <v>120047</v>
+      </c>
+      <c r="C80" s="9">
+        <v>0</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="8">
+        <v>124154</v>
+      </c>
+      <c r="C81" s="9">
+        <v>0</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="12">
+        <v>112657</v>
+      </c>
+      <c r="C82" s="13">
+        <v>21964.6</v>
+      </c>
+      <c r="D82" s="13">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="11"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="12">
+        <v>107946</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0</v>
+      </c>
+      <c r="D83" s="13">
+        <v>0</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="8">
+        <v>96327</v>
+      </c>
+      <c r="C84" s="9">
+        <v>0</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="12">
+        <v>83706</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0</v>
+      </c>
+      <c r="D85" s="13">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="12">
+        <v>110471</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0</v>
+      </c>
+      <c r="D86" s="13">
+        <v>0</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="8">
+        <v>108206</v>
+      </c>
+      <c r="C87" s="9">
+        <v>0</v>
+      </c>
+      <c r="D87" s="9">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="8">
+        <v>108207</v>
+      </c>
+      <c r="C88" s="9">
+        <v>0</v>
+      </c>
+      <c r="D88" s="9">
+        <v>0</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="8">
+        <v>108208</v>
+      </c>
+      <c r="C89" s="9">
+        <v>1492.76</v>
+      </c>
+      <c r="D89" s="9">
+        <v>0</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" s="8">
+        <v>123589</v>
+      </c>
+      <c r="C90" s="9">
+        <v>268</v>
+      </c>
+      <c r="D90" s="9">
+        <v>0</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="8">
+        <v>117346</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="12">
+        <v>111328</v>
+      </c>
+      <c r="C92" s="13">
+        <v>0</v>
+      </c>
+      <c r="D92" s="13">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="8">
+        <v>117827</v>
+      </c>
+      <c r="C93" s="9">
+        <v>6897.98</v>
+      </c>
+      <c r="D93" s="9">
+        <v>6305</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="12">
+        <v>115720</v>
+      </c>
+      <c r="C94" s="13">
+        <v>4889.75</v>
+      </c>
+      <c r="D94" s="13">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
+      <c r="B95" s="8">
+        <v>120427</v>
+      </c>
+      <c r="C95" s="9">
+        <v>11110</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="12">
+        <v>104974</v>
+      </c>
+      <c r="C96" s="13">
+        <v>0</v>
+      </c>
+      <c r="D96" s="13">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F96" s="11"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="8">
+        <v>117190</v>
+      </c>
+      <c r="C97" s="9">
+        <v>0</v>
+      </c>
+      <c r="D97" s="9">
+        <v>4950</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="8">
+        <v>105580</v>
+      </c>
+      <c r="C98" s="9">
+        <v>0</v>
+      </c>
+      <c r="D98" s="9">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="8">
+        <v>120355</v>
+      </c>
+      <c r="C99" s="9">
+        <v>12745</v>
+      </c>
+      <c r="D99" s="9">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="12">
+        <v>111302</v>
+      </c>
+      <c r="C100" s="13">
+        <v>0</v>
+      </c>
+      <c r="D100" s="13">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>138</v>
+      </c>
+      <c r="B101" s="8">
+        <v>116594</v>
+      </c>
+      <c r="C101" s="9">
+        <v>0</v>
+      </c>
+      <c r="D101" s="9">
+        <v>17</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="12">
+        <v>124711</v>
+      </c>
+      <c r="C102" s="13">
+        <v>99999</v>
+      </c>
+      <c r="D102" s="13">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="B103" s="8">
+        <v>125640</v>
+      </c>
+      <c r="C103" s="9">
+        <v>0</v>
+      </c>
+      <c r="D103" s="9">
+        <v>0</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>141</v>
+      </c>
+      <c r="B104" s="8">
+        <v>107967</v>
+      </c>
+      <c r="C104" s="9">
+        <v>0</v>
+      </c>
+      <c r="D104" s="9">
+        <v>0</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="8">
+        <v>3913</v>
+      </c>
+      <c r="C105" s="9">
+        <v>800</v>
+      </c>
+      <c r="D105" s="9">
+        <v>595</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>143</v>
+      </c>
+      <c r="B106" s="8">
+        <v>115211</v>
+      </c>
+      <c r="C106" s="9">
+        <v>2828.46</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>144</v>
+      </c>
+      <c r="B107" s="8">
+        <v>96132</v>
+      </c>
+      <c r="C107" s="9">
+        <v>0</v>
+      </c>
+      <c r="D107" s="9">
+        <v>2428</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="8">
+        <v>113779</v>
+      </c>
+      <c r="C108" s="9">
+        <v>0</v>
+      </c>
+      <c r="D108" s="9">
+        <v>0</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" s="8">
+        <v>96002</v>
+      </c>
+      <c r="C109" s="9">
+        <v>0</v>
+      </c>
+      <c r="D109" s="9">
+        <v>1459.5</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="8">
+        <v>120523</v>
+      </c>
+      <c r="C110" s="9">
+        <v>0</v>
+      </c>
+      <c r="D110" s="9">
+        <v>965.25</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="8">
+        <v>120882</v>
+      </c>
+      <c r="C111" s="9">
+        <v>0</v>
+      </c>
+      <c r="D111" s="9">
+        <v>0</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" s="8">
+        <v>120884</v>
+      </c>
+      <c r="C112" s="9">
+        <v>0</v>
+      </c>
+      <c r="D112" s="9">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B113" s="12">
+        <v>120881</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0</v>
+      </c>
+      <c r="D113" s="13">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" s="11"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B114" s="12">
+        <v>120885</v>
+      </c>
+      <c r="C114" s="13">
+        <v>0</v>
+      </c>
+      <c r="D114" s="13">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="12">
+        <v>120883</v>
+      </c>
+      <c r="C115" s="13">
+        <v>0</v>
+      </c>
+      <c r="D115" s="13">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F115" s="11"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="8">
+        <v>120880</v>
+      </c>
+      <c r="C116" s="9">
+        <v>30554</v>
+      </c>
+      <c r="D116" s="9">
+        <v>4712.3599999999997</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7A958E-546B-4DC0-8FA4-95FE4E6D939B}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,15 +3496,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1008,7 +3512,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1016,7 +3520,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1024,7 +3528,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">

--- a/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{473AF777-26D1-43A9-91F6-3B5350F34D80}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDD3A52-CADB-476B-B486-75279B1B534E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1965" yWindow="4650" windowWidth="23235" windowHeight="1530" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
+    <workbookView minimized="1" xWindow="28830" yWindow="870" windowWidth="28740" windowHeight="15420" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Field Descriptions" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Edit Team" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="158">
   <si>
     <t>Add Profile</t>
   </si>
@@ -511,6 +512,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -634,7 +638,43 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -649,20 +689,6 @@
         <scheme val="major"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -705,10 +731,6 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -720,16 +742,22 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,19 +772,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:B7" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:E16" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2705EF5E-7673-46B7-8510-3E355CF13A75}" name="Team Name"/>
@@ -770,26 +802,32 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:F116" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:H116" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:H116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="2"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AA60B3A-5C22-4EF1-AC63-FFA2B35F0AB0}" name="Quote Template Name"/>
-    <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E87ED63C-BC54-49FC-89C8-83EB2458BED5}" name="Total" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{A5F807BA-08F9-41A4-9CBF-90139FB2D23D}" name="Recurring" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{620AA166-6A38-4FFB-9E56-F773F40A0C00}" name="Status" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D73D302D-1A85-48F4-98FA-FBF948C010DD}" name="Notes"/>
+    <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{E87ED63C-BC54-49FC-89C8-83EB2458BED5}" name="Total" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A5F807BA-08F9-41A4-9CBF-90139FB2D23D}" name="Recurring" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{620AA166-6A38-4FFB-9E56-F773F40A0C00}" name="Status" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{D73D302D-1A85-48F4-98FA-FBF948C010DD}" name="Description"/>
+    <tableColumn id="7" xr3:uid="{FC6A876C-C9E6-4C0E-9FD5-68D58EECBB8E}" name="Action"/>
+    <tableColumn id="8" xr3:uid="{D12601E4-780E-4EE5-BC38-8971219B29FA}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B5" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,7 +1156,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>
@@ -1451,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF9CB69-39A5-427C-AC5B-F48FDEB163BE}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,9 +1503,11 @@
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
@@ -1484,10 +1524,16 @@
         <v>40</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1504,7 +1550,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1521,24 +1567,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="12">
         <v>84520</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1555,7 +1604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1572,7 +1621,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1589,7 +1638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -1608,25 +1657,30 @@
       <c r="F8" s="11" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="12">
         <v>84521</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>50</v>
       </c>
@@ -1643,8 +1697,10 @@
         <v>42</v>
       </c>
       <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1661,7 +1717,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1678,7 +1734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1695,7 +1751,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1712,7 +1768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1729,7 +1785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1746,7 +1802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1763,24 +1819,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="12">
         <v>5250</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="13">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1797,7 +1856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1814,7 +1873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1831,7 +1890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1848,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1865,7 +1924,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1882,7 +1941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1899,7 +1958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1933,7 +1992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1950,7 +2009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1967,7 +2026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -1984,7 +2043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2001,7 +2060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2018,7 +2077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2035,7 +2094,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>74</v>
       </c>
@@ -2052,8 +2111,10 @@
         <v>42</v>
       </c>
       <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>75</v>
       </c>
@@ -2070,8 +2131,10 @@
         <v>42</v>
       </c>
       <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2088,7 +2151,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>77</v>
       </c>
@@ -2105,8 +2168,10 @@
         <v>42</v>
       </c>
       <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>78</v>
       </c>
@@ -2123,8 +2188,10 @@
         <v>42</v>
       </c>
       <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>79</v>
       </c>
@@ -2141,8 +2208,10 @@
         <v>42</v>
       </c>
       <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>80</v>
       </c>
@@ -2159,8 +2228,10 @@
         <v>42</v>
       </c>
       <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>81</v>
       </c>
@@ -2177,8 +2248,10 @@
         <v>42</v>
       </c>
       <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>82</v>
       </c>
@@ -2195,8 +2268,10 @@
         <v>42</v>
       </c>
       <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>83</v>
       </c>
@@ -2213,8 +2288,10 @@
         <v>42</v>
       </c>
       <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2231,7 +2308,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2248,7 +2325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>86</v>
       </c>
@@ -2265,8 +2342,10 @@
         <v>42</v>
       </c>
       <c r="F46" s="11"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>87</v>
       </c>
@@ -2283,8 +2362,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>88</v>
       </c>
@@ -2301,8 +2382,10 @@
         <v>42</v>
       </c>
       <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2319,7 +2402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>90</v>
       </c>
@@ -2336,8 +2419,10 @@
         <v>42</v>
       </c>
       <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -2354,7 +2439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2371,7 +2456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2388,7 +2473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2405,7 +2490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2422,7 +2507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2439,7 +2524,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2456,7 +2541,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2473,7 +2558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2490,7 +2575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2507,7 +2592,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2524,7 +2609,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2541,7 +2626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2558,7 +2643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2575,7 +2660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2592,7 +2677,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2609,7 +2694,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -2626,7 +2711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -2643,7 +2728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -2660,7 +2745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2677,7 +2762,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -2694,7 +2779,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -2711,7 +2796,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -2728,7 +2813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -2745,7 +2830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -2762,7 +2847,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -2779,7 +2864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>116</v>
       </c>
@@ -2796,8 +2881,10 @@
         <v>42</v>
       </c>
       <c r="F77" s="11"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -2814,7 +2901,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -2831,7 +2918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -2848,7 +2935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -2865,7 +2952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>121</v>
       </c>
@@ -2882,8 +2969,10 @@
         <v>42</v>
       </c>
       <c r="F82" s="11"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>122</v>
       </c>
@@ -2900,8 +2989,10 @@
         <v>42</v>
       </c>
       <c r="F83" s="11"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -2918,7 +3009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>124</v>
       </c>
@@ -2935,8 +3026,10 @@
         <v>42</v>
       </c>
       <c r="F85" s="11"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>125</v>
       </c>
@@ -2953,8 +3046,10 @@
         <v>42</v>
       </c>
       <c r="F86" s="11"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -2971,7 +3066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -2988,7 +3083,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -3005,7 +3100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -3022,7 +3117,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -3039,7 +3134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>129</v>
       </c>
@@ -3056,8 +3151,10 @@
         <v>42</v>
       </c>
       <c r="F92" s="11"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -3074,7 +3171,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>131</v>
       </c>
@@ -3091,8 +3188,10 @@
         <v>42</v>
       </c>
       <c r="F94" s="11"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -3109,7 +3208,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>133</v>
       </c>
@@ -3126,8 +3225,10 @@
         <v>42</v>
       </c>
       <c r="F96" s="11"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -3144,7 +3245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -3161,7 +3262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -3178,7 +3279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>137</v>
       </c>
@@ -3195,8 +3296,10 @@
         <v>42</v>
       </c>
       <c r="F100" s="11"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -3213,7 +3316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>139</v>
       </c>
@@ -3230,8 +3333,10 @@
         <v>42</v>
       </c>
       <c r="F102" s="11"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -3248,7 +3353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -3265,7 +3370,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>142</v>
       </c>
@@ -3282,7 +3387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -3299,7 +3404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -3316,7 +3421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -3333,7 +3438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>146</v>
       </c>
@@ -3350,7 +3455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -3367,7 +3472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -3384,7 +3489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -3401,7 +3506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>150</v>
       </c>
@@ -3418,8 +3523,10 @@
         <v>42</v>
       </c>
       <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>151</v>
       </c>
@@ -3436,8 +3543,10 @@
         <v>42</v>
       </c>
       <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>152</v>
       </c>
@@ -3454,8 +3563,10 @@
         <v>42</v>
       </c>
       <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+    </row>
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>153</v>
       </c>
@@ -3473,6 +3584,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G116" xr:uid="{200E3D86-4210-41AF-B914-810C92509338}">
+      <formula1>"Deprecate, Modify, Consolidate, N/A"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3488,7 +3604,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.7109375" style="1" customWidth="1"/>

--- a/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="123" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDD3A52-CADB-476B-B486-75279B1B534E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28830" yWindow="870" windowWidth="28740" windowHeight="15420" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
+    <workbookView xWindow="28680" yWindow="450" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Field Descriptions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Edit Team" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -638,31 +637,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -703,6 +678,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -772,23 +755,19 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:B7" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:E16" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2705EF5E-7673-46B7-8510-3E355CF13A75}" name="Team Name"/>
@@ -802,18 +781,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:H116" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:H116" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:H116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}">
     <filterColumn colId="0">
-      <colorFilter dxfId="2"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AA60B3A-5C22-4EF1-AC63-FFA2B35F0AB0}" name="Quote Template Name"/>
-    <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E87ED63C-BC54-49FC-89C8-83EB2458BED5}" name="Total" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5F807BA-08F9-41A4-9CBF-90139FB2D23D}" name="Recurring" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{620AA166-6A38-4FFB-9E56-F773F40A0C00}" name="Status" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E87ED63C-BC54-49FC-89C8-83EB2458BED5}" name="Total" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{A5F807BA-08F9-41A4-9CBF-90139FB2D23D}" name="Recurring" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{620AA166-6A38-4FFB-9E56-F773F40A0C00}" name="Status" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{D73D302D-1A85-48F4-98FA-FBF948C010DD}" name="Description"/>
     <tableColumn id="7" xr3:uid="{FC6A876C-C9E6-4C0E-9FD5-68D58EECBB8E}" name="Action"/>
     <tableColumn id="8" xr3:uid="{D12601E4-780E-4EE5-BC38-8971219B29FA}" name="Notes"/>
@@ -823,11 +802,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0CCC9A8D-F711-4E57-B1C3-589FC084751F}" name="Table13" displayName="Table13" ref="A1:B5" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B5" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E54FF52E-4A15-4487-9838-6510910D6C97}" name="Field" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{95A31568-5DA9-4E0E-AECC-CD03CCF21147}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1492,7 +1471,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BDD3A52-CADB-476B-B486-75279B1B534E}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D9917C-C7E3-4DE9-987A-199FAB555797}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="450" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
   </bookViews>
@@ -637,7 +637,7 @@
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -678,14 +678,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -756,18 +748,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:B7" xr:uid="{BA5122E7-5189-4468-BF8F-0683950E4BA4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{6BE075E6-89FE-4758-9225-DA2C18ED1BE2}" name="Field" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{6958885B-EEE8-46BD-8538-5380EC30F9FC}" name="Description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E16" xr:uid="{375F0321-FC23-446E-A31A-0A092C64B0BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2705EF5E-7673-46B7-8510-3E355CF13A75}" name="Team Name"/>
@@ -781,12 +773,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:H116" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:H116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="8"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}" name="Table4" displayName="Table4" ref="A1:H116" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:H116" xr:uid="{A752994E-AC3D-42A6-83AF-EB2559080BDF}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5AA60B3A-5C22-4EF1-AC63-FFA2B35F0AB0}" name="Quote Template Name"/>
     <tableColumn id="2" xr3:uid="{AB7FACE1-48AE-4A13-BBC5-CCCF638FE478}" name="Number" dataDxfId="7"/>
@@ -1471,7 +1459,7 @@
   <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1500,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1529,7 +1517,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1566,7 +1554,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1583,7 +1571,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1600,7 +1588,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1679,7 +1667,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1696,7 +1684,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1713,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -1730,7 +1718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +1735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1764,7 +1752,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -1781,7 +1769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1818,7 +1806,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1835,7 +1823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -1852,7 +1840,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1869,7 +1857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -1886,7 +1874,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1903,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -1920,7 +1908,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -1937,7 +1925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -1954,7 +1942,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -1971,7 +1959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1988,7 +1976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2005,7 +1993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
@@ -2022,7 +2010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2039,7 +2027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>72</v>
       </c>
@@ -2056,7 +2044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2113,7 +2101,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2270,7 +2258,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -2287,7 +2275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2364,7 +2352,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -2401,7 +2389,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -2418,7 +2406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -2435,7 +2423,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -2452,7 +2440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2469,7 +2457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>95</v>
       </c>
@@ -2486,7 +2474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>97</v>
       </c>
@@ -2520,7 +2508,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>98</v>
       </c>
@@ -2537,7 +2525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>99</v>
       </c>
@@ -2554,7 +2542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -2571,7 +2559,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>101</v>
       </c>
@@ -2588,7 +2576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>102</v>
       </c>
@@ -2605,7 +2593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
@@ -2622,7 +2610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
@@ -2639,7 +2627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -2656,7 +2644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -2673,7 +2661,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
@@ -2690,7 +2678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -2707,7 +2695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -2724,7 +2712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -2741,7 +2729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>110</v>
       </c>
@@ -2758,7 +2746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -2775,7 +2763,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -2792,7 +2780,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>113</v>
       </c>
@@ -2809,7 +2797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -2826,7 +2814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -2863,7 +2851,7 @@
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>117</v>
       </c>
@@ -2880,7 +2868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -2897,7 +2885,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>119</v>
       </c>
@@ -2914,7 +2902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>120</v>
       </c>
@@ -2971,7 +2959,7 @@
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>123</v>
       </c>
@@ -3028,7 +3016,7 @@
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -3045,7 +3033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -3062,7 +3050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -3079,7 +3067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -3096,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -3133,7 +3121,7 @@
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>130</v>
       </c>
@@ -3170,7 +3158,7 @@
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>132</v>
       </c>
@@ -3207,7 +3195,7 @@
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>134</v>
       </c>
@@ -3224,7 +3212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>135</v>
       </c>
@@ -3241,7 +3229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>136</v>
       </c>
@@ -3278,7 +3266,7 @@
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>138</v>
       </c>
@@ -3315,7 +3303,7 @@
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>140</v>
       </c>
@@ -3332,7 +3320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -3349,7 +3337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>142</v>
       </c>
@@ -3366,7 +3354,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>144</v>
       </c>
@@ -3400,7 +3388,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>145</v>
       </c>
@@ -3417,7 +3405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>146</v>
       </c>
@@ -3434,7 +3422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>147</v>
       </c>
@@ -3451,7 +3439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>148</v>
       </c>
@@ -3468,7 +3456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>149</v>
       </c>
@@ -3545,7 +3533,7 @@
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>153</v>
       </c>

--- a/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-teams-matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81D9917C-C7E3-4DE9-987A-199FAB555797}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{A5D92240-C2E0-44E4-8715-FBBA2B0F3533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17972CE4-B04A-41B9-8E58-41D43E6BA59E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="450" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6107A567-3E09-47F5-8C1B-BDEC155DBC75}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Field Descriptions" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,13 +535,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -561,17 +554,12 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -588,12 +576,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,31 +597,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1198,8 +1183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC182DA-AFA1-48C9-B759-1603FF1DFEC8}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,19 +1417,19 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="14" t="b">
+      <c r="C16" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="14" t="b">
+      <c r="D16" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1458,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF9CB69-39A5-427C-AC5B-F48FDEB163BE}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
